--- a/medicine/Enfance/Stian_Hole/Stian_Hole.xlsx
+++ b/medicine/Enfance/Stian_Hole/Stian_Hole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stian Hole (né à Tønsberg le 20 mars 1969) est un auteur et illustrateur norvégien.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir obtenu un diplôme de l'École nationale des arts graphiques et du design d'Oslo, il écrit une trilogie consacrée à un personnage, Garmann, qu'il dit avoir été inspiré par son fils. Pour le premier opus L'Été de Garmann, il a été récompensé par le Prix Brage (Jeunesse) en 2006, l'année suivante par le prix BolognaRagazzi (prix du meilleur album) à la Foire du livre de jeunesse de Bologne[1], et en 2009, par le Prix Sorcières catégorie Albums. Le troisième opus Le Secret de Garmann est à nouveau récompensé par le Prix Brage en 2010, dans la Catégorie Ouverte.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir obtenu un diplôme de l'École nationale des arts graphiques et du design d'Oslo, il écrit une trilogie consacrée à un personnage, Garmann, qu'il dit avoir été inspiré par son fils. Pour le premier opus L'Été de Garmann, il a été récompensé par le Prix Brage (Jeunesse) en 2006, l'année suivante par le prix BolognaRagazzi (prix du meilleur album) à la Foire du livre de jeunesse de Bologne, et en 2009, par le Prix Sorcières catégorie Albums. Le troisième opus Le Secret de Garmann est à nouveau récompensé par le Prix Brage en 2010, dans la Catégorie Ouverte.
 Les livres sont illustrés par des collages réalisés à l'aide de Photoshop. Stian Hole vit et travaille à Oslo.
-En 2023, il est sélectionné pour la cinquième année d'affilée (depuis 2019) pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren[2].
+En 2023, il est sélectionné pour la cinquième année d'affilée (depuis 2019) pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Œuvres traduites en français</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Garmanns sommer, 2006 ; traduction :
 L'Été de Garmann, Albin Michel jeunesse, traduit par Jean-Baptiste Coursaud, 2008
@@ -581,9 +597,11 @@
           <t>Réception critique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>« Les images de Stian Hole, maître dans l'art de mêler photos et dessins, rythmes joyeux et couleurs printanières, sont plus que jamais étonnantes, fourmillant de détails. Un vrai feu d’artifice. »[3]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>« Les images de Stian Hole, maître dans l'art de mêler photos et dessins, rythmes joyeux et couleurs printanières, sont plus que jamais étonnantes, fourmillant de détails. Un vrai feu d’artifice. »</t>
         </is>
       </c>
     </row>
@@ -611,15 +629,17 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2006 :  Prix Brage (Jeunesse) pour L'Été de Garmann
 2007 :  Prix BolognaRagazzi (prix du meilleur album) à la Foire du livre de jeunesse de Bologne pour L'Été de Garmann.
 2008 :  Prix Sorcières catégorie Albums pour L'Été de Garmann
 2010 :  Prix Brage (Catégorie Ouverte) pour Le Secret de Garmann
 2010 :  Deutscher Jugendliteraturpreis (Prix du meilleur livre illustré) pour L'Été de Garmann
-2012 : (international) « Honour List »[4] de l' IBBY pour Le Secret de Garmann
-2019 à 2023 :  Sélection pour le Prix commémoratif Astrid-Lindgren durant cinq années d'affilée[2]</t>
+2012 : (international) « Honour List » de l' IBBY pour Le Secret de Garmann
+2019 à 2023 :  Sélection pour le Prix commémoratif Astrid-Lindgren durant cinq années d'affilée</t>
         </is>
       </c>
     </row>
